--- a/synt.xlsx
+++ b/synt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afell\Desktop\bt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFAC83-2616-4F19-87D3-C513101181B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25417B1A-FBA9-4073-8C56-D92A751B02E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t>Centre de formation: Ecole iris</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>X SLAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse URL du portfolio http: </t>
   </si>
   <si>
     <t>£</t>
@@ -143,12 +137,6 @@
     <t>Développement d'un jeu en C : Jeu du snake</t>
   </si>
   <si>
-    <t>Elaboration d'une veille technologique : IA, Cloud, RV, CMS, FR,…JS</t>
-  </si>
-  <si>
-    <t>Conception et développement d'une application client lourd en Java-Swing et Mysql pour l'administration de la base de données ...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Développement d'un jeu Demineur en Java-Swing </t>
   </si>
   <si>
@@ -170,22 +158,55 @@
     <t>Conception et développement d'un site web sur Wix Pour Handsome</t>
   </si>
   <si>
-    <t>Développement d'un site web utilisant JavaScript, HTML et CSS, intégrant un algorithme de calcul pour des fonctionnalités avancées.</t>
-  </si>
-  <si>
     <t>Création d'un site web  pour Handsome avec intégration de data provenant du ministère de l'education, en utilisant JavaScript</t>
   </si>
   <si>
     <t>Élaboration du cahier des charges pour l'équipe de développement pour la création de la deuxième version du site web Handsome en utilisant React.</t>
   </si>
   <si>
-    <t>Aout-23</t>
-  </si>
-  <si>
-    <t>Intégration d'un blog sur  Wix</t>
-  </si>
-  <si>
     <t>Participation au développement d'un chatbot pour le site Handsome sur Dialogflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboration d'une veille technologique : la blockchain dans le monde de la date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoFormation sur Protgresql et PHP sur udumy et Implémentation des bases de données relationnelles avec SQL, Les bases de la sécurité numérique, Les risques juridiques liés au numérique sur OpenClassroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement d'un site web utilisant JavaScript, HTML et CSS, intégrant un algorithme de calcul </t>
+  </si>
+  <si>
+    <t>Centre de formation: Ecole Iris, impasse des deux Cousins, Paris 17e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception et développement d'une application client lourd en Java-Swing et Mysql pour l'administration de la base de données </t>
+  </si>
+  <si>
+    <t>mars-23 à ce jour</t>
+  </si>
+  <si>
+    <t>Aout-23 à sept-23</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :  http: https://portfolio-yassmine-afellat.vercel.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avril-24 à ce jour</t>
+  </si>
+  <si>
+    <t>nov-23 à Févr-24</t>
+  </si>
+  <si>
+    <t>Mars-23 à Mai-23</t>
+  </si>
+  <si>
+    <t>Rédaction et Intégration d'article de blog sur  Wix</t>
+  </si>
+  <si>
+    <t>Avr-23 à Juin-23</t>
+  </si>
+  <si>
+    <t>Juill-23 à Aout-23</t>
   </si>
 </sst>
 </file>
@@ -195,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,11 +274,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
@@ -265,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,18 +290,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -297,21 +343,6 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -346,7 +377,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
@@ -364,58 +395,13 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -472,36 +458,6 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,29 +498,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
       <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -572,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -589,88 +560,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,41 +584,92 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,10 +979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ72"/>
+  <dimension ref="A1:AQ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="97" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1039,124 +995,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="H7" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1195,16 +1151,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="A8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1242,26 +1198,26 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="32">
         <v>45170</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13"/>
+      <c r="C9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="35"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1299,24 +1255,24 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="32">
         <v>45200</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="35"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1354,24 +1310,24 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32">
         <v>45231</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="13"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="35"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1409,22 +1365,22 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
         <v>45231</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="35"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1462,19 +1418,19 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="32">
         <v>45047</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="20" t="s">
-        <v>35</v>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1513,25 +1469,25 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="17">
+      <c r="A14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="32">
         <v>45323</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>35</v>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1570,22 +1526,22 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="32">
         <v>45352</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="22"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="39"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1622,23 +1578,21 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="17">
-        <v>45383</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="22"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1676,16 +1630,24 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45383</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="39"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1722,25 +1684,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="17">
-        <v>44986</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="13"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1777,25 +1731,25 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="17">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="13"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="35"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1833,26 +1787,24 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="17">
-        <v>45108</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="35"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1890,16 +1842,26 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="A21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1936,25 +1898,17 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20" t="s">
-        <v>35</v>
-      </c>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1991,24 +1945,24 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="39">
-        <v>45231</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43" t="s">
-        <v>35</v>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2046,29 +2000,23 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="38">
-        <v>45352</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="23" t="s">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="B24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="35"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2106,14 +2054,26 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="35"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2150,15 +2110,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2195,7 +2155,51 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+    </row>
     <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2240,20 +2244,21 @@
     <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -2274,17 +2279,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2d190b98-133a-421f-9eb8-e032cc46f289" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c0f95de-9df6-41b0-823b-95cf7bcd2b16">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D12A9BC076CEC4682EEF1CD42C30158" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="528b21e3672206f136399323c59ae2b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c0f95de-9df6-41b0-823b-95cf7bcd2b16" xmlns:ns3="2d190b98-133a-421f-9eb8-e032cc46f289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02969549e03e8e6240a3ad7416b12f22" ns2:_="" ns3:_="">
     <xsd:import namespace="8c0f95de-9df6-41b0-823b-95cf7bcd2b16"/>
@@ -2513,6 +2507,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2d190b98-133a-421f-9eb8-e032cc46f289" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c0f95de-9df6-41b0-823b-95cf7bcd2b16">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2523,17 +2528,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF36B6A0-74DD-4800-8E4D-3CD3E9871000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d190b98-133a-421f-9eb8-e032cc46f289"/>
-    <ds:schemaRef ds:uri="8c0f95de-9df6-41b0-823b-95cf7bcd2b16"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BCD128-F3BA-4B14-8850-DB9B53EB16C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2552,6 +2546,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF36B6A0-74DD-4800-8E4D-3CD3E9871000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d190b98-133a-421f-9eb8-e032cc46f289"/>
+    <ds:schemaRef ds:uri="8c0f95de-9df6-41b0-823b-95cf7bcd2b16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE246222-7F5C-448F-B021-7F1211E6C6B2}">
   <ds:schemaRefs>
